--- a/VodafonePOC/ReadExcel/TestData.xlsx
+++ b/VodafonePOC/ReadExcel/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmoud.yasser\source\repos\VodafonePOC\VodafonePOC\ReadExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7DE9D6-BDDE-498C-AC1F-70C813462891}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6041223B-1CFA-4A1F-B41C-BF7FF6BFCBBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>Search Bar ID</t>
   </si>
   <si>
-    <t>//*[@class="header"]/div[3]/div/ul/span/li/a</t>
-  </si>
-  <si>
     <t>eShopButton</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>//*[@id="noResultsHeader"]</t>
   </si>
   <si>
-    <t>https://www.vodafone.com.eg/eshop/Catalogue/Search-Results</t>
-  </si>
-  <si>
     <t>result url</t>
   </si>
   <si>
@@ -103,13 +97,19 @@
   </si>
   <si>
     <t>.no-gutter &gt; strong:nth-child(1)</t>
+  </si>
+  <si>
+    <t>//*[@id="nav-header"]/div/div/div/div/ul/li[2]/a</t>
+  </si>
+  <si>
+    <t>https://eshop.vodafone.com.eg/eshop/Catalogue/Search-Results</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +121,14 @@
       <b/>
       <sz val="11"/>
       <color theme="7" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -160,10 +168,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -174,8 +183,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -457,149 +470,150 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="55" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="13.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="G2" s="2"/>
       <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{69C733C7-FA78-44BD-8E1C-DC968CCB1617}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{783E3116-79C9-44E4-B058-6F9E90F6D1C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>